--- a/data/case1/5/Plm2_14.xlsx
+++ b/data/case1/5/Plm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.10062179438010332</v>
+        <v>-0.010862383516112573</v>
       </c>
       <c r="B1" s="0">
-        <v>0.10016828706346814</v>
+        <v>0.010724236323085279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.034854745690781286</v>
+        <v>0.035382657262564621</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.03565661124609143</v>
+        <v>-0.036021701911549187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.13858790839427471</v>
+        <v>0.14456276755547748</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.13929200288731991</v>
+        <v>-0.14525711302865218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14469822043418645</v>
+        <v>-0.13872635237535746</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14396760758005911</v>
+        <v>0.13808258844101573</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13796760796047991</v>
+        <v>-0.13208258929532413</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13651111322483445</v>
+        <v>0.13080265313614259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.048617969026284236</v>
+        <v>-0.029977692536763634</v>
       </c>
       <c r="B6" s="0">
-        <v>0.048586598303734352</v>
+        <v>0.029964644085588521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.028586598776749739</v>
+        <v>-0.0099646451087522792</v>
       </c>
       <c r="B7" s="0">
-        <v>0.028548665482276192</v>
+        <v>0.0099352758650947948</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0085486659571412105</v>
+        <v>0.010064723110573048</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0085425350635759401</v>
+        <v>-0.010148116444994137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062337177858267978</v>
+        <v>0.016148115567476751</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062014557435791318</v>
+        <v>-0.016252587645658068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056014557837222867</v>
+        <v>-0.015049004247778441</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055968892867646503</v>
+        <v>0.015049776781587809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051468893261162663</v>
+        <v>-0.010549777640804336</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051391354002198852</v>
+        <v>0.010548646909114723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045391354406125739</v>
+        <v>-0.0045486477842908712</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045149716204033741</v>
+        <v>0.0045419546584768433</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039149716614545582</v>
+        <v>0.001458044465355357</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039083965325823478</v>
+        <v>-0.0014584960702306304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027083965772964014</v>
+        <v>0.013458495131996706</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027052251538593808</v>
+        <v>-0.013465008365534104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052251952733414</v>
+        <v>0.019465007490594211</v>
       </c>
       <c r="B15" s="0">
-        <v>0.02102729246124202</v>
+        <v>-0.019483415053097808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027292876840015</v>
+        <v>0.025483414180440978</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004357075937946</v>
+        <v>-0.025541298704006898</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043574934508541</v>
+        <v>-0.0090036907098136609</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995647227493</v>
+        <v>0.0089999991021167958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.12502303315795515</v>
+        <v>-0.03610689448284532</v>
       </c>
       <c r="B18" s="0">
-        <v>0.12476020071854776</v>
+        <v>0.036095891612639264</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.047533084489610911</v>
+        <v>-0.027095892499889196</v>
       </c>
       <c r="B19" s="0">
-        <v>0.047250905072330429</v>
+        <v>0.027013039798366556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013816377251857</v>
+        <v>-0.018013040693102056</v>
       </c>
       <c r="B20" s="0">
-        <v>0.01800432863924506</v>
+        <v>0.018004197303698177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043290460268821</v>
+        <v>-0.0090041981994755105</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995927820819</v>
+        <v>0.0089999991034961369</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093931297545109871</v>
+        <v>-0.099541066528594513</v>
       </c>
       <c r="B22" s="0">
-        <v>0.09362368895580353</v>
+        <v>0.099223234975898578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084623689356376985</v>
+        <v>-0.060855404193408624</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124656645201412</v>
+        <v>0.060638556761275275</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124657242424313</v>
+        <v>-0.042123384185996038</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999399505938</v>
+        <v>0.041999998748901923</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.081893144590104328</v>
+        <v>-0.094824961476533076</v>
       </c>
       <c r="B25" s="0">
-        <v>0.08173166494210804</v>
+        <v>0.094591968789139003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.075731665335101894</v>
+        <v>-0.088591969669106874</v>
       </c>
       <c r="B26" s="0">
-        <v>0.075526886500895785</v>
+        <v>0.088289358677865692</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.069526886895867612</v>
+        <v>-0.082289359562065734</v>
       </c>
       <c r="B27" s="0">
-        <v>0.068838620431987074</v>
+        <v>0.081245478303338281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.062838620834461345</v>
+        <v>-0.075245479207273647</v>
       </c>
       <c r="B28" s="0">
-        <v>0.062373250865235264</v>
+        <v>0.074522446210026239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.050373251307258116</v>
+        <v>-0.062522447189671482</v>
       </c>
       <c r="B29" s="0">
-        <v>0.050157923118488767</v>
+        <v>0.06216504933545508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.030157923608954196</v>
+        <v>-0.042165050404111337</v>
       </c>
       <c r="B30" s="0">
-        <v>0.030098065730903123</v>
+        <v>0.042018237447402296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.02701909585075768</v>
+        <v>-0.027018238473052847</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000702423594092</v>
+        <v>0.027000501676461397</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007029234228071</v>
+        <v>-0.0060005027655103405</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995863693201</v>
+        <v>0.0059999990662005231</v>
       </c>
     </row>
   </sheetData>
